--- a/test-files/galleries/_galleries.xlsx
+++ b/test-files/galleries/_galleries.xlsx
@@ -1,68 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>folder-name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Cats</t>
-  </si>
-  <si>
-    <t>cats</t>
-  </si>
-  <si>
-    <t>about cats and stuff</t>
-  </si>
-  <si>
-    <t>Dogs</t>
-  </si>
-  <si>
-    <t>dogs</t>
-  </si>
-  <si>
-    <t>about dogs and stuff</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>flowers</t>
-  </si>
-  <si>
-    <t>about flowers and stuff</t>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about cats and stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about dogs and stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about flowers and stuff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -70,51 +107,94 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -125,7 +205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -136,7 +216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -147,7 +227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -159,6 +239,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>